--- a/utils/report_generator/files/report.xlsx
+++ b/utils/report_generator/files/report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\higor.chaves\Documents\projects\libsPythonT2C\utils\report_generator\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837C64C4-FC01-41F4-AE9A-6233B6C1F4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E43D07-C2BF-4915-8F7E-47394912EFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sintetico" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,24 +154,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,31 +180,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -644,27 +613,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="20.6640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -672,23 +640,23 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -696,777 +664,806 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
-    </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A7,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A8,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A9,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A10,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A11,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A12,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A13,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A14,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A15,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A16,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A17,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A18,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A19,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A20,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A21,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A22,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A23,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A24,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A25,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A26,#REF!,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-    </row>
-    <row r="45" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-    </row>
-    <row r="46" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-    </row>
-    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-    </row>
-    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-    </row>
-    <row r="49" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-    </row>
-    <row r="50" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-    </row>
-    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-    </row>
-    <row r="52" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-    </row>
-    <row r="53" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-    </row>
-    <row r="54" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-    </row>
-    <row r="55" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-    </row>
-    <row r="56" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="57" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-    </row>
-    <row r="58" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-    </row>
-    <row r="59" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-    </row>
-    <row r="60" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-    </row>
-    <row r="62" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-    </row>
-    <row r="66" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="16"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-    </row>
-    <row r="69" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="16"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-    </row>
-    <row r="70" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="10"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-    </row>
-    <row r="72" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="10"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-    </row>
-    <row r="73" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="16"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-    </row>
-    <row r="74" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="10"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-    </row>
-    <row r="75" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="16"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-    </row>
-    <row r="76" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="10"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-    </row>
-    <row r="77" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="16"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-    </row>
-    <row r="78" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="10"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-    </row>
-    <row r="79" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="16"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-    </row>
-    <row r="80" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="10"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-    </row>
-    <row r="81" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="16"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-    </row>
-    <row r="82" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="10"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-    </row>
-    <row r="83" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-    </row>
-    <row r="84" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="10"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-    </row>
-    <row r="85" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="16"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-    </row>
-    <row r="86" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="10"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-    </row>
-    <row r="87" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="16"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-    </row>
-    <row r="88" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="10"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-    </row>
-    <row r="89" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="16"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-    </row>
-    <row r="90" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="10"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-    </row>
-    <row r="91" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="16"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-    </row>
-    <row r="92" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="10"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-    </row>
-    <row r="93" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="16"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-    </row>
-    <row r="94" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="10"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+    </row>
+    <row r="92" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1482,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AED1F0-BAA1-4DFE-9869-4A2E4ACC220F}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -1523,10 +1520,10 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1547,21 +1544,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DFC2B4B9DC439F4FB8EA5770FAFDF57B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="16ce4f2cdf1f5c1363ddbbeb8be2d677">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74f9ddb5-1420-4a28-a31c-0e89ef2b5702" xmlns:ns3="ddec4300-165d-445e-a9b4-22f04ff0da33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2371193508c4571757b09fc06ff2780f" ns2:_="" ns3:_="">
     <xsd:import namespace="74f9ddb5-1420-4a28-a31c-0e89ef2b5702"/>
@@ -1784,32 +1766,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D1E0AF9-37BE-433A-B90E-5B7AC45226A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ddec4300-165d-445e-a9b4-22f04ff0da33"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="74f9ddb5-1420-4a28-a31c-0e89ef2b5702"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A71E73-8627-4372-A670-991702E4250B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{165D0018-52D2-4870-BC69-88000A98EE9C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1826,4 +1798,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A71E73-8627-4372-A670-991702E4250B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D1E0AF9-37BE-433A-B90E-5B7AC45226A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ddec4300-165d-445e-a9b4-22f04ff0da33"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="74f9ddb5-1420-4a28-a31c-0e89ef2b5702"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>